--- a/excel/M1-S1/M1-S1-MAPI.xlsx
+++ b/excel/M1-S1/M1-S1-MAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M1-S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\backendespi\excel\M1-S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D0908-5D05-4958-A146-E2A7965943BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C9BD5D-CC1B-46BE-9623-8E65E6553B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60630" yWindow="2025" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Finance Immobilière</t>
   </si>
   <si>
-    <t>Economie Immobilière I</t>
-  </si>
-  <si>
     <t>UE 2 – Droit</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Real Estate English</t>
   </si>
   <si>
-    <t>Les Rencontres de l'Immobilier</t>
-  </si>
-  <si>
     <t>ESPI Career Services</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>UE SPE – MAPI</t>
   </si>
   <si>
-    <t>Etude Foncière</t>
-  </si>
-  <si>
     <t>Montage d'une Opération de Promotion Immobilière</t>
   </si>
   <si>
@@ -121,6 +112,15 @@
   </si>
   <si>
     <t>Appreciations</t>
+  </si>
+  <si>
+    <t>Économie Immobilière I</t>
+  </si>
+  <si>
+    <t>Rencontres de l'Immobilier</t>
+  </si>
+  <si>
+    <t>Étude Foncière</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,55 +693,55 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -755,97 +755,97 @@
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
